--- a/biology/Zoologie/Diplocentrus_tehuacanus/Diplocentrus_tehuacanus.xlsx
+++ b/biology/Zoologie/Diplocentrus_tehuacanus/Diplocentrus_tehuacanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplocentrus tehuacanus est une espèce de scorpions de la famille des Diplocentridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[1]. Elle se rencontre au Puebla vers Tehuacán et Acatlán, en Oaxaca vers Santiago Chazumba, au Guerrero vers Taxco et Iguala et au Morelos vers Amacuzac[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre au Puebla vers Tehuacán et Acatlán, en Oaxaca vers Santiago Chazumba, au Guerrero vers Taxco et Iguala et au Morelos vers Amacuzac.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Francke en 1977 mesure 54,95 mm et la femelle 45,10 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Francke en 1977 mesure 54,95 mm et la femelle 45,10 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Diplocentrus keyserlingi tehuacanus par Hoffmann en 1931. Elle est élevée au rang d'espèce par Francke en 1977[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Diplocentrus keyserlingi tehuacanus par Hoffmann en 1931. Elle est élevée au rang d'espèce par Francke en 1977.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Tehuacán.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hoffmann, 1931 : Monografias para la Entomologia Medica de Mexico. Monografia num. 2. Los Scorpiones de Mexico. Primera parte Diplocentridae, Chactidae, Vejovidae. Anales del Instituto de Biologia Mexico, vol. 2, no 4, p. 291-408.</t>
         </is>
